--- a/Statistic_Files/UsersFinalData.xlsx
+++ b/Statistic_Files/UsersFinalData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeher\OneDrive\Escritorio\PDG DeepSalsa\PDG\Statistic_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF11C73A-8067-429E-A079-9274141C434C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C663E14A-CBBE-4280-8CE7-E251C5B427AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B2A16C1E-ADC0-4498-9577-A206558E7746}"/>
   </bookViews>
@@ -1129,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79055D75-2A73-41B3-B797-1021A68D63A1}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,29 +1652,29 @@
         <v>5.2901350152690796</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B20" s="12">
         <v>0.41242000000000001</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C20" s="12">
         <v>0.79217700000000002</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D20" s="12">
         <v>0.66458200000000001</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E20" s="12">
         <v>0.26521099999999997</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F20" s="12">
         <v>0.32772299999999999</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G20" s="12">
         <v>6.1601000000000003E-2</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
